--- a/Assets/Resources/Document/Excel/Player.xlsx
+++ b/Assets/Resources/Document/Excel/Player.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,6 +16,38 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Projectile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paladin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Archer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Player/Archer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Player/Paladin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -24,6 +56,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>characterType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxStamina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>moveSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -32,55 +76,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>atkType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Projectile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Paladin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Archer</t>
+    <t>growthRef</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>resourcePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Player/Archer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Player/Paladin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>characterType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>growthRef</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxStamina</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,46 +430,49 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -477,13 +480,13 @@
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -498,7 +501,7 @@
         <v>1001</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -506,13 +509,13 @@
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -527,7 +530,7 @@
         <v>1002</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Document/Excel/Player.xlsx
+++ b/Assets/Resources/Document/Excel/Player.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Normal</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,18 @@
   </si>
   <si>
     <t>resourcePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -476,60 +488,89 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1001</v>
+      <c r="A2" t="s">
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>8</v>
-      </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <v>1001</v>
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>100</v>
       </c>
       <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>1001</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
         <v>10</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>7</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>1002</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I4" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Assets/Resources/Document/Excel/Player.xlsx
+++ b/Assets/Resources/Document/Excel/Player.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Normal</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,14 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxMana</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -439,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -451,14 +459,15 @@
     <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -475,19 +484,22 @@
         <v>12</v>
       </c>
       <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -504,19 +516,22 @@
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
         <v>19</v>
       </c>
       <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -533,19 +548,22 @@
         <v>100</v>
       </c>
       <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
         <v>8</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>6</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1001</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -562,15 +580,18 @@
         <v>100</v>
       </c>
       <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
         <v>10</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>7</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1002</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Assets/Resources/Document/Excel/Player.xlsx
+++ b/Assets/Resources/Document/Excel/Player.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -450,7 +450,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -551,7 +551,7 @@
         <v>100</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="H3">
         <v>6</v>
@@ -583,7 +583,7 @@
         <v>100</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>7</v>
